--- a/data/excel/licenses.xlsx
+++ b/data/excel/licenses.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">icon</t>
   </si>
   <si>
-    <t xml:space="preserve">relatedURI_1</t>
+    <t xml:space="preserve">relatedURI_0</t>
   </si>
   <si>
     <t xml:space="preserve">CC</t>
@@ -804,8 +804,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/excel/licenses.xlsx
+++ b/data/excel/licenses.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\NUŠL\SW\INVENIO 3\taxonomie\současné_hotové\aktualne_pouzite_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\moon.ntkcz.cz\petka\NUŠL\SW\INVENIO 3\taxonomie\současné_hotové\NR_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12636" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
   <si>
     <t>code</t>
   </si>
@@ -555,15 +555,6 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-nd/4.0/</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t>Dílo je chráněno podle autorského zákona č. 121/2000 Sb.</t>
-  </si>
-  <si>
-    <t>This work is protected under the Copyright Act No. 121/2000 Coll.</t>
   </si>
   <si>
     <t>relatedURI_URL</t>
@@ -1006,25 +997,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="86.5703125" customWidth="1"/>
-    <col min="4" max="4" width="72.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="52.140625" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="86.5546875" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="52.109375" customWidth="1"/>
+    <col min="1024" max="1024" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1067,7 +1058,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="H4" s="5"/>
@@ -1087,7 +1078,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:1024" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="6"/>
@@ -1125,7 +1116,7 @@
       <c r="W5" s="7"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1156,7 +1147,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -1187,7 +1178,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -1222,7 +1213,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -1257,7 +1248,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1292,7 +1283,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1327,7 +1318,7 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -1362,7 +1353,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1397,7 +1388,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -1428,7 +1419,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -1463,7 +1454,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -1498,7 +1489,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -1533,7 +1524,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -1568,7 +1559,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -1603,7 +1594,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -1638,7 +1629,7 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2</v>
       </c>
@@ -1669,7 +1660,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>3</v>
       </c>
@@ -1704,7 +1695,7 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -1739,7 +1730,7 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>3</v>
       </c>
@@ -1774,7 +1765,7 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -1809,7 +1800,7 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>3</v>
       </c>
@@ -1844,7 +1835,7 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>3</v>
       </c>
@@ -1879,7 +1870,7 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -1910,7 +1901,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>3</v>
       </c>
@@ -1945,7 +1936,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>3</v>
       </c>
@@ -1980,7 +1971,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>3</v>
       </c>
@@ -2015,7 +2006,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>3</v>
       </c>
@@ -2050,7 +2041,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -2085,7 +2076,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -2106,7 +2097,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -2122,7 +2113,7 @@
       <c r="E35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>3</v>
       </c>
@@ -2143,7 +2134,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>3</v>
       </c>
@@ -2164,7 +2155,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>3</v>
       </c>
@@ -2185,7 +2176,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>3</v>
       </c>
@@ -2206,7 +2197,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>3</v>
       </c>
@@ -2227,7 +2218,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>3</v>
       </c>
@@ -2248,19 +2239,9 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>1</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" t="s">
-        <v>179</v>
-      </c>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
